--- a/Data/Temp/Yearly-Report-2021-DE763212.xlsx
+++ b/Data/Temp/Yearly-Report-2021-DE763212.xlsx
@@ -14,243 +14,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <x:si>
+    <x:t>338650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>597280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122625</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>379448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-24</x:t>
+  </x:si>
   <x:si>
     <x:t>521764</x:t>
   </x:si>
   <x:si>
-    <x:t>Various paper supplies</x:t>
+    <x:t>211696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42339.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254035</x:t>
   </x:si>
   <x:si>
     <x:t>2017-06-13</x:t>
   </x:si>
   <x:si>
-    <x:t>211696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42339.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
     <x:t>681230</x:t>
   </x:si>
   <x:si>
     <x:t>Beverages and Catering</x:t>
   </x:si>
   <x:si>
+    <x:t>186747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37349.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224096</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-06-24</x:t>
   </x:si>
   <x:si>
-    <x:t>186747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37349.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>224096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
     <x:t>460699</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
+    <x:t>273954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54790.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>328745</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-06-03</x:t>
   </x:si>
   <x:si>
-    <x:t>273954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54790.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>379448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>593034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24903.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1879</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11274</x:t>
-  </x:si>
-  <x:si>
     <x:t>584842</x:t>
   </x:si>
   <x:si>
+    <x:t>144380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173256</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-07-02</x:t>
   </x:si>
   <x:si>
-    <x:t>144380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
     <x:t>537293</x:t>
   </x:si>
   <x:si>
+    <x:t>157987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31597.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189584</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-08-01</x:t>
   </x:si>
   <x:si>
-    <x:t>157987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31597.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189584</x:t>
-  </x:si>
-  <x:si>
     <x:t>755981</x:t>
   </x:si>
   <x:si>
+    <x:t>42911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8582.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51493.2</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-11-26</x:t>
   </x:si>
   <x:si>
-    <x:t>42911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8582.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51493.2</x:t>
-  </x:si>
-  <x:si>
     <x:t>999758</x:t>
   </x:si>
   <x:si>
-    <x:t>Waste management services</x:t>
+    <x:t>295178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59035.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>354214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
   </x:si>
   <x:si>
     <x:t>2017-11-16</x:t>
   </x:si>
   <x:si>
-    <x:t>295178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59035.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>354214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
     <x:t>700344</x:t>
   </x:si>
   <x:si>
+    <x:t>88761</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17752.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106513</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-12-28</x:t>
   </x:si>
   <x:si>
-    <x:t>88761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17752.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106513</x:t>
-  </x:si>
-  <x:si>
     <x:t>602916</x:t>
   </x:si>
   <x:si>
+    <x:t>76894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15378.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92272.8</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-12-15</x:t>
   </x:si>
   <x:si>
-    <x:t>76894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15378.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92272.8</x:t>
-  </x:si>
-  <x:si>
     <x:t>987093</x:t>
   </x:si>
   <x:si>
+    <x:t>289058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57811.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>346870</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-12-27</x:t>
   </x:si>
   <x:si>
-    <x:t>289058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57811.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>346870</x:t>
-  </x:si>
-  <x:si>
     <x:t>309811</x:t>
   </x:si>
   <x:si>
+    <x:t>120791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24158.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144949</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-12-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24158.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144949</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -635,45 +650,45 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -681,252 +696,298 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="B15" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="F15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>6</x:v>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
